--- a/R_analytics/german_credit/GermanCredit.xlsx
+++ b/R_analytics/german_credit/GermanCredit.xlsx
@@ -1,15 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="28705"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="24855" windowHeight="11205"/>
+    <workbookView xWindow="240" yWindow="100" windowWidth="24860" windowHeight="11200"/>
   </bookViews>
   <sheets>
     <sheet name="germancredit" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">germancredit!$A$1:$U$1001</definedName>
+  </definedNames>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -244,8 +252,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="18">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1059,12 +1067,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:21">
       <c r="A1" t="s">
@@ -66132,6 +66142,12 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:U1001"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>